--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823E62CD-677C-4AE9-B6BF-FE8F3FB2CD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A23BE4-0BD4-47EC-8370-C970E5B8F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-90" yWindow="1578" windowWidth="18390" windowHeight="10398" activeTab="4" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="7" r:id="rId1"/>
-    <sheet name="Final" sheetId="9" r:id="rId2"/>
+    <sheet name="Original_1" sheetId="7" r:id="rId1"/>
+    <sheet name="Final_1" sheetId="9" r:id="rId2"/>
     <sheet name="Errors" sheetId="8" r:id="rId3"/>
+    <sheet name="Original_2" sheetId="10" r:id="rId4"/>
+    <sheet name="Final_2" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final!$B$2:$Q$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_1!$B$2:$Q$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="140">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -201,16 +203,299 @@
   </si>
   <si>
     <t>Meets Goals</t>
+  </si>
+  <si>
+    <t>job_title_short</t>
+  </si>
+  <si>
+    <t>job_posted_date</t>
+  </si>
+  <si>
+    <t>job_location</t>
+  </si>
+  <si>
+    <t>job_country</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>job_via</t>
+  </si>
+  <si>
+    <t>job_schedule_type</t>
+  </si>
+  <si>
+    <t>salary_year_avg</t>
+  </si>
+  <si>
+    <t>job_work_from_home</t>
+  </si>
+  <si>
+    <t>job_skills</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer</t>
+  </si>
+  <si>
+    <t>Aliso Viejo, CA</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Adroit Worldwide Media, Inc. (AWM Smart Shelf)</t>
+  </si>
+  <si>
+    <t>via ZipRecruiter</t>
+  </si>
+  <si>
+    <t>Full-time</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'gcp', 'power bi', 'tableau']</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Jobmatchingpartner Ltd</t>
+  </si>
+  <si>
+    <t>via LinkedIn Malta</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>['sql', 'r', 'python', 'hadoop', 'spark', 'looker']</t>
+  </si>
+  <si>
+    <t>Reston, VA</t>
+  </si>
+  <si>
+    <t>Octo Consulting Group</t>
+  </si>
+  <si>
+    <t>via Snagajob</t>
+  </si>
+  <si>
+    <t>['sql', 'power bi']</t>
+  </si>
+  <si>
+    <t>Cupertino, CA</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r']</t>
+  </si>
+  <si>
+    <t>Senior Data Analyst</t>
+  </si>
+  <si>
+    <t>Rochester, MN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Securian Financial Group</t>
+  </si>
+  <si>
+    <t>['sql', 'aws', 'tableau', 'flow']</t>
+  </si>
+  <si>
+    <t>Des Moines, IA</t>
+  </si>
+  <si>
+    <t>EMC Insurance Companies</t>
+  </si>
+  <si>
+    <t>Full-time and Part-time</t>
+  </si>
+  <si>
+    <t>['r', 'python', 'sql', 'hadoop']</t>
+  </si>
+  <si>
+    <t>Atlanta, GA</t>
+  </si>
+  <si>
+    <t>The E Group</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'sql server', 'mysql', 'oracle', 'spss']</t>
+  </si>
+  <si>
+    <t>Jacksonville, FL</t>
+  </si>
+  <si>
+    <t>Okaya Corp</t>
+  </si>
+  <si>
+    <t>via Indeed</t>
+  </si>
+  <si>
+    <t>['power bi']</t>
+  </si>
+  <si>
+    <t>Dublin, CA</t>
+  </si>
+  <si>
+    <t>NextPhase</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'snowflake', 'oracle', 'tableau']</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Insight Global</t>
+  </si>
+  <si>
+    <t>via LinkedIn</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'r', 'power bi']</t>
+  </si>
+  <si>
+    <t>Sunnyvale, CA</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>['python', 'scala', 'r', 'spark', 'tensorflow']</t>
+  </si>
+  <si>
+    <t>Senior Data Scientist</t>
+  </si>
+  <si>
+    <t>Pasadena, CA</t>
+  </si>
+  <si>
+    <t>Harnham</t>
+  </si>
+  <si>
+    <t>['python', 'sql', 'git']</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
+    <t>Stripe</t>
+  </si>
+  <si>
+    <t>via IT JobServe</t>
+  </si>
+  <si>
+    <t>['python', 'sql', 'spark']</t>
+  </si>
+  <si>
+    <t>Johannesburg, South Africa</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Standard Bank Group</t>
+  </si>
+  <si>
+    <t>via Ai-Jobs.net</t>
+  </si>
+  <si>
+    <t>['sql', 'python', 'c#', 'java', 'c++', 'html', 'sas', 'sas', 'r', 'tableau', 'power bi', 'spss', 'qlik']</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Vattenfall</t>
+  </si>
+  <si>
+    <t>['python', 'azure']</t>
+  </si>
+  <si>
+    <t>Amsterdam, Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Devoteam</t>
+  </si>
+  <si>
+    <t>['sql', 'gcp', 'unix', 'docker']</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Dallas, TX</t>
+  </si>
+  <si>
+    <t>DISYS</t>
+  </si>
+  <si>
+    <t>['sql', 'html', 'sql server', 'oracle', 'snowflake', 'power bi', 'sharepoint', 'dax', 'excel', 'jira']</t>
+  </si>
+  <si>
+    <t>Broomfield, CO</t>
+  </si>
+  <si>
+    <t>Datalab USA</t>
+  </si>
+  <si>
+    <t>['sql', 'r', 'python', 'tableau', 'excel']</t>
+  </si>
+  <si>
+    <t>Fortira Inc.</t>
+  </si>
+  <si>
+    <t>['sql', 'sas', 'sas', 'r', 'python', 'snowflake', 'hadoop']</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Denodo Technologies</t>
+  </si>
+  <si>
+    <t>via Ladders</t>
+  </si>
+  <si>
+    <t>['power bi', 'excel', 'powerpoint', 'flow']</t>
+  </si>
+  <si>
+    <t>Both Roles</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Brackets</t>
+  </si>
+  <si>
+    <t>Total Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +539,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -275,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -532,12 +822,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,6 +905,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,32 +1278,32 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.06640625" style="1"/>
-    <col min="18" max="18" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="5.1015625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.05078125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.05078125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.20703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.05078125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1015625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7890625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.05078125" style="1"/>
+    <col min="18" max="18" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1080,11 +1388,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="19" t="b">
-        <f>$C$15&lt;=C3</f>
+        <f t="shared" ref="L3:L12" si="0">$C$15&lt;=C3</f>
         <v>1</v>
       </c>
       <c r="M3" s="19" t="b">
-        <f>$G3&gt;=$C$16</f>
+        <f t="shared" ref="M3:M12" si="1">$G3&gt;=$C$16</f>
         <v>1</v>
       </c>
       <c r="N3" s="19">
@@ -1100,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1114,51 +1422,51 @@
         <v>12000</v>
       </c>
       <c r="F4" s="23">
-        <f t="shared" ref="F4:F12" si="0">C4</f>
+        <f t="shared" ref="F4:F12" si="2">C4</f>
         <v>4</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G12" si="1">D4+E4</f>
+        <f t="shared" ref="G4:G12" si="3">D4+E4</f>
         <v>147000</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H12" si="2">E4/D4</f>
+        <f t="shared" ref="H4:H12" si="4">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
+        <f t="shared" ref="I4:I12" si="5">D4+D4*H4</f>
         <v>147000</v>
       </c>
       <c r="J4" s="19" t="b">
-        <f t="shared" ref="J4:J12" si="4">G4=I4</f>
+        <f t="shared" ref="J4:J12" si="6">G4=I4</f>
         <v>1</v>
       </c>
       <c r="K4" s="19" t="b">
-        <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
+        <f t="shared" ref="K4:K12" si="7">E4&gt;D4</f>
         <v>0</v>
       </c>
       <c r="L4" s="19" t="b">
-        <f>$C$15&lt;=C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="19" t="b">
-        <f>$G4&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N4" s="19">
-        <f t="shared" ref="N4:N12" si="6">L4*M4</f>
+        <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
       <c r="O4" s="19" t="b">
-        <f t="shared" ref="O4:O12" si="7">L4*M4=1</f>
+        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
       <c r="P4" s="19" t="b">
-        <f t="shared" ref="P4:P12" si="8">AND(L4,M4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1172,51 +1480,51 @@
         <v>5000</v>
       </c>
       <c r="F5" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H5" s="20">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I5" s="21">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
+      <c r="H5" s="20">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
       <c r="J5" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K5" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L5" s="19" t="b">
-        <f>$C$15&lt;=C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="19" t="b">
-        <f>$G5&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O5" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P5" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1230,51 +1538,51 @@
         <v>8000</v>
       </c>
       <c r="F6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" si="1"/>
-        <v>118000</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="I6" s="21">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
+      <c r="H6" s="20">
+        <f t="shared" si="4"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="5"/>
+        <v>118000</v>
+      </c>
       <c r="J6" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K6" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L6" s="19" t="b">
-        <f>$C$15&lt;=C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="b">
-        <f>$G6&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O6" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P6" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1288,51 +1596,51 @@
         <v>11000</v>
       </c>
       <c r="F7" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G7" s="19">
-        <f t="shared" si="1"/>
-        <v>136000</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="2"/>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I7" s="21">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
+      <c r="H7" s="20">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="5"/>
+        <v>136000</v>
+      </c>
       <c r="J7" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K7" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L7" s="19" t="b">
-        <f>$C$15&lt;=C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="19" t="b">
-        <f>$G7&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O7" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P7" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1346,51 +1654,51 @@
         <v>7000</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G8" s="19">
-        <f t="shared" si="1"/>
-        <v>97000</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="2"/>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I8" s="21">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
+      <c r="H8" s="20">
+        <f t="shared" si="4"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="5"/>
+        <v>97000</v>
+      </c>
       <c r="J8" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K8" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L8" s="19" t="b">
-        <f>$C$15&lt;=C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="19" t="b">
-        <f>$G8&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O8" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P8" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1404,51 +1712,51 @@
         <v>15000</v>
       </c>
       <c r="F9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="21">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
+      <c r="H9" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="5"/>
+        <v>165000</v>
+      </c>
       <c r="J9" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K9" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L9" s="19" t="b">
-        <f>$C$15&lt;=C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M9" s="19" t="b">
-        <f>$G9&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O9" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P9" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1462,51 +1770,51 @@
         <v>13000</v>
       </c>
       <c r="F10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" si="1"/>
-        <v>143000</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="21">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
+      <c r="H10" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="5"/>
+        <v>143000</v>
+      </c>
       <c r="J10" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K10" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L10" s="19" t="b">
-        <f>$C$15&lt;=C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M10" s="19" t="b">
-        <f>$G10&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O10" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P10" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1520,51 +1828,51 @@
         <v>14000</v>
       </c>
       <c r="F11" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="1"/>
-        <v>154000</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="21">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
+      <c r="H11" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="5"/>
+        <v>154000</v>
+      </c>
       <c r="J11" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K11" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L11" s="19" t="b">
-        <f>$C$15&lt;=C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="19" t="b">
-        <f>$G11&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1578,56 +1886,56 @@
         <v>9000</v>
       </c>
       <c r="F12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="1"/>
-        <v>124000</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="2"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>7.8260869565217397E-2</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="5"/>
+        <v>124000</v>
+      </c>
       <c r="J12" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K12" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L12" s="19" t="b">
-        <f>$C$15&lt;=C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M12" s="19" t="b">
-        <f>$G12&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O12" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P12" s="19" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1635,7 +1943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -1652,36 +1960,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C913A13C-1EE0-4C25-B641-D7D4D62C7E1E}">
   <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.06640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.06640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.06640625" style="1"/>
-    <col min="19" max="19" width="14.06640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="5.1015625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5234375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.05078125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.05078125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3125" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.20703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.05078125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1015625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.7890625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.05078125" style="1"/>
+    <col min="19" max="19" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1731,7 +2039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1769,11 +2077,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="19" t="b">
-        <f>$C$15&lt;=C3</f>
+        <f t="shared" ref="L3:L12" si="0">$C$15&lt;=C3</f>
         <v>1</v>
       </c>
       <c r="M3" s="19" t="b">
-        <f>$G3&gt;=$C$16</f>
+        <f t="shared" ref="M3:M12" si="1">$G3&gt;=$C$16</f>
         <v>1</v>
       </c>
       <c r="N3" s="19">
@@ -1793,7 +2101,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1807,55 +2115,55 @@
         <v>12000</v>
       </c>
       <c r="F4" s="23">
-        <f t="shared" ref="F4:F12" si="0">C4</f>
+        <f t="shared" ref="F4:F12" si="2">C4</f>
         <v>4</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G12" si="1">D4+E4</f>
+        <f t="shared" ref="G4:G12" si="3">D4+E4</f>
         <v>147000</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H12" si="2">E4/D4</f>
+        <f t="shared" ref="H4:H12" si="4">E4/D4</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="I4" s="21">
-        <f t="shared" ref="I4:I12" si="3">D4+D4*H4</f>
+        <f t="shared" ref="I4:I12" si="5">D4+D4*H4</f>
         <v>147000</v>
       </c>
       <c r="J4" s="19" t="b">
-        <f t="shared" ref="J4:J12" si="4">G4=I4</f>
+        <f t="shared" ref="J4:J12" si="6">G4=I4</f>
         <v>1</v>
       </c>
       <c r="K4" s="19" t="b">
-        <f t="shared" ref="K4:K12" si="5">E4&gt;D4</f>
+        <f t="shared" ref="K4:K12" si="7">E4&gt;D4</f>
         <v>0</v>
       </c>
       <c r="L4" s="19" t="b">
-        <f>$C$15&lt;=C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M4" s="19" t="b">
-        <f>$G4&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N4" s="19">
-        <f t="shared" ref="N4:N12" si="6">L4*M4</f>
+        <f t="shared" ref="N4:N12" si="8">L4*M4</f>
         <v>0</v>
       </c>
       <c r="O4" s="19" t="b">
-        <f t="shared" ref="O4:O12" si="7">L4*M4=1</f>
+        <f t="shared" ref="O4:O12" si="9">L4*M4=1</f>
         <v>0</v>
       </c>
       <c r="P4" s="30" t="b">
-        <f t="shared" ref="P4:P12" si="8">AND(L4,M4)</f>
+        <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="32" t="str">
-        <f t="shared" ref="Q4:Q12" si="9">IF(P4, "Goal Met", "Not Met")</f>
+        <f t="shared" ref="Q4:Q12" si="11">IF(P4, "Goal Met", "Not Met")</f>
         <v>Not Met</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1869,55 +2177,55 @@
         <v>5000</v>
       </c>
       <c r="F5" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G5" s="19">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H5" s="20">
-        <f t="shared" si="2"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I5" s="21">
         <f t="shared" si="3"/>
         <v>80000</v>
       </c>
+      <c r="H5" s="20">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I5" s="21">
+        <f t="shared" si="5"/>
+        <v>80000</v>
+      </c>
       <c r="J5" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K5" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L5" s="19" t="b">
-        <f>$C$15&lt;=C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M5" s="19" t="b">
-        <f>$G5&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O5" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P5" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q5" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Not Met</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1931,55 +2239,55 @@
         <v>8000</v>
       </c>
       <c r="F6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G6" s="19">
-        <f t="shared" si="1"/>
-        <v>118000</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" si="2"/>
-        <v>7.2727272727272724E-2</v>
-      </c>
-      <c r="I6" s="21">
         <f t="shared" si="3"/>
         <v>118000</v>
       </c>
+      <c r="H6" s="20">
+        <f t="shared" si="4"/>
+        <v>7.2727272727272724E-2</v>
+      </c>
+      <c r="I6" s="21">
+        <f t="shared" si="5"/>
+        <v>118000</v>
+      </c>
       <c r="J6" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K6" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L6" s="19" t="b">
-        <f>$C$15&lt;=C6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M6" s="19" t="b">
-        <f>$G6&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O6" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P6" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q6" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1993,55 +2301,55 @@
         <v>11000</v>
       </c>
       <c r="F7" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G7" s="19">
-        <f t="shared" si="1"/>
-        <v>136000</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="2"/>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="I7" s="21">
         <f t="shared" si="3"/>
         <v>136000</v>
       </c>
+      <c r="H7" s="20">
+        <f t="shared" si="4"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I7" s="21">
+        <f t="shared" si="5"/>
+        <v>136000</v>
+      </c>
       <c r="J7" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K7" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L7" s="19" t="b">
-        <f>$C$15&lt;=C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M7" s="19" t="b">
-        <f>$G7&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O7" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P7" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q7" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Not Met</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2055,55 +2363,55 @@
         <v>7000</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G8" s="19">
-        <f t="shared" si="1"/>
-        <v>97000</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="2"/>
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I8" s="21">
         <f t="shared" si="3"/>
         <v>97000</v>
       </c>
+      <c r="H8" s="20">
+        <f t="shared" si="4"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I8" s="21">
+        <f t="shared" si="5"/>
+        <v>97000</v>
+      </c>
       <c r="J8" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K8" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L8" s="19" t="b">
-        <f>$C$15&lt;=C8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="19" t="b">
-        <f>$G8&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O8" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P8" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q8" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2117,55 +2425,55 @@
         <v>15000</v>
       </c>
       <c r="F9" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G9" s="19">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I9" s="21">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
+      <c r="H9" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="21">
+        <f t="shared" si="5"/>
+        <v>165000</v>
+      </c>
       <c r="J9" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K9" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L9" s="19" t="b">
-        <f>$C$15&lt;=C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M9" s="19" t="b">
-        <f>$G9&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N9" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O9" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P9" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q9" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2179,55 +2487,55 @@
         <v>13000</v>
       </c>
       <c r="F10" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G10" s="19">
-        <f t="shared" si="1"/>
-        <v>143000</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="21">
         <f t="shared" si="3"/>
         <v>143000</v>
       </c>
+      <c r="H10" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="21">
+        <f t="shared" si="5"/>
+        <v>143000</v>
+      </c>
       <c r="J10" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K10" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L10" s="19" t="b">
-        <f>$C$15&lt;=C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M10" s="19" t="b">
-        <f>$G10&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O10" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P10" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q10" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2241,55 +2549,55 @@
         <v>14000</v>
       </c>
       <c r="F11" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G11" s="19">
-        <f t="shared" si="1"/>
-        <v>154000</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="I11" s="21">
         <f t="shared" si="3"/>
         <v>154000</v>
       </c>
+      <c r="H11" s="20">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" si="5"/>
+        <v>154000</v>
+      </c>
       <c r="J11" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K11" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L11" s="19" t="b">
-        <f>$C$15&lt;=C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M11" s="19" t="b">
-        <f>$G11&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O11" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P11" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q11" s="32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Not Met</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2303,60 +2611,60 @@
         <v>9000</v>
       </c>
       <c r="F12" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G12" s="19">
-        <f t="shared" si="1"/>
-        <v>124000</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="2"/>
-        <v>7.8260869565217397E-2</v>
-      </c>
-      <c r="I12" s="21">
         <f t="shared" si="3"/>
         <v>124000</v>
       </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>7.8260869565217397E-2</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="5"/>
+        <v>124000</v>
+      </c>
       <c r="J12" s="19" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="K12" s="19" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L12" s="19" t="b">
-        <f>$C$15&lt;=C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M12" s="19" t="b">
-        <f>$G12&gt;=$C$16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O12" s="19" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="P12" s="30" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q12" s="33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2364,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2386,14 +2694,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="13.3984375" customWidth="1"/>
-    <col min="3" max="3" width="31.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.41796875" customWidth="1"/>
+    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
@@ -2404,7 +2712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="27" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -2416,7 +2724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="27" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -2428,7 +2736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -2440,7 +2748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -2452,7 +2760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="27" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -2464,7 +2772,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="27" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -2476,7 +2784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="27" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
@@ -2486,6 +2794,2027 @@
       </c>
       <c r="D9" s="27" t="s">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.9453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.62890625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.05078125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="35">
+        <v>44996.547291666669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>135000</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>45097.915243055562</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <v>35000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>45173.250416666669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35">
+        <v>45156.253321759257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="35">
+        <v>45147.802951388891</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="35">
+        <v>45202.753101851849</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="35">
+        <v>44949.850462962961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35">
+        <v>45001.627175925933</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>115000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="35">
+        <v>45041.375868055547</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="35">
+        <v>45106.587094907409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>105000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="35">
+        <v>45029.919687499998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12">
+        <v>195000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="35">
+        <v>45091.502789351849</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>165000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="35">
+        <v>45175.543124999997</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>281450.5</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="35">
+        <v>45117.778391203698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>70000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35">
+        <v>44938.614351851851</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>98301.5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="35">
+        <v>44985.354097222233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>89100</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="35">
+        <v>45063.792291666658</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="35">
+        <v>45017.004837962973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>87500</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="35">
+        <v>45169.64203703704</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="35">
+        <v>45000.542685185188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <v>90000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
+  <dimension ref="A1:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3671875" customWidth="1"/>
+    <col min="3" max="3" width="21.9453125" customWidth="1"/>
+    <col min="4" max="4" width="11.1015625" customWidth="1"/>
+    <col min="5" max="5" width="38.15625" customWidth="1"/>
+    <col min="6" max="6" width="14.62890625" customWidth="1"/>
+    <col min="7" max="7" width="18.62890625" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="68.05078125" customWidth="1"/>
+    <col min="11" max="11" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5234375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1015625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P1" s="36">
+        <v>85000</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="35">
+        <v>44996.547291666669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2">
+        <v>135000</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF($A2=$K$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF($A2=$L$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF($A2=$K$1, "Role Desired",IF($A2=$L$1, "Role Desired", "NOT Desired"))</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N2" t="b">
+        <f>OR($A2=$K$1, $A2=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(OR($A2=$K$1, $A2=$L$1), "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF($H2&gt;$P$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q2" t="str" cm="1">
+        <f t="array" ref="Q2">_xlfn.IFS(H2="", "No Data", H2&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R2">
+        <f>H2*1.1</f>
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35">
+        <v>45097.915243055562</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <v>35000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="0">IF($A3=$K$1, "Role Desired", "NOT Desired")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" si="1">IF($A3=$L$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M21" si="2">IF($A3=$K$1, "Role Desired",IF($A3=$L$1, "Role Desired", "NOT Desired"))</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N21" si="3">OR($A3=$K$1, $A3=$L$1)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O21" si="4">IF(OR($A3=$K$1, $A3=$L$1), "Role Desired", "NOT Desired")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P21" si="5">IF($H3&gt;$P$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q3" t="str" cm="1">
+        <f t="array" ref="Q3">_xlfn.IFS(H3="", "No Data", H3&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R21" si="6">H3*1.1</f>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>45173.250416666669</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" ref="Q4">_xlfn.IFS(H4="", "No Data", H4&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="35">
+        <v>45156.253321759257</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" ref="Q5">_xlfn.IFS(H5="", "No Data", H5&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="35">
+        <v>45147.802951388891</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" ref="Q6">_xlfn.IFS(H6="", "No Data", H6&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="35">
+        <v>45202.753101851849</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" ref="Q7">_xlfn.IFS(H7="", "No Data", H7&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="35">
+        <v>44949.850462962961</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" ref="Q8">_xlfn.IFS(H8="", "No Data", H8&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="35">
+        <v>45001.627175925933</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>115000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" ref="Q9">_xlfn.IFS(H9="", "No Data", H9&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>126500.00000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="35">
+        <v>45041.375868055547</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" ref="Q10">_xlfn.IFS(H10="", "No Data", H10&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="35">
+        <v>45106.587094907409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11">
+        <v>105000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" ref="Q11">_xlfn.IFS(H11="", "No Data", H11&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>115500.00000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="35">
+        <v>45029.919687499998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12">
+        <v>195000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" ref="Q12">_xlfn.IFS(H12="", "No Data", H12&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>214500.00000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="35">
+        <v>45091.502789351849</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>165000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" ref="Q13">_xlfn.IFS(H13="", "No Data", H13&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>181500.00000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="35">
+        <v>45175.543124999997</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14">
+        <v>281450.5</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q14" t="str" cm="1">
+        <f t="array" ref="Q14">_xlfn.IFS(H14="", "No Data", H14&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>309595.55000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="35">
+        <v>45117.778391203698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15">
+        <v>70000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q15" t="str" cm="1">
+        <f t="array" ref="Q15">_xlfn.IFS(H15="", "No Data", H15&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="35">
+        <v>44938.614351851851</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16">
+        <v>98301.5</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q16" t="str" cm="1">
+        <f t="array" ref="Q16">_xlfn.IFS(H16="", "No Data", H16&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>108131.65000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="35">
+        <v>44985.354097222233</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>89100</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q17" t="str" cm="1">
+        <f t="array" ref="Q17">_xlfn.IFS(H17="", "No Data", H17&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>98010.000000000015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="35">
+        <v>45063.792291666658</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q18" t="str" cm="1">
+        <f t="array" ref="Q18">_xlfn.IFS(H18="", "No Data", H18&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="35">
+        <v>45017.004837962973</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19">
+        <v>87500</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q19" t="str" cm="1">
+        <f t="array" ref="Q19">_xlfn.IFS(H19="", "No Data", H19&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>96250.000000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="35">
+        <v>45169.64203703704</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="Q20" t="str" cm="1">
+        <f t="array" ref="Q20">_xlfn.IFS(H20="", "No Data", H20&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="35">
+        <v>45000.542685185188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21">
+        <v>90000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="Q21" t="str" cm="1">
+        <f t="array" ref="Q21">_xlfn.IFS(H21="", "No Data", H21&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>99000.000000000015</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A23BE4-0BD4-47EC-8370-C970E5B8F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53973FD9-B5D6-4D93-996B-1CE20931EB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="1578" windowWidth="18390" windowHeight="10398" activeTab="4" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-48" yWindow="630" windowWidth="18132" windowHeight="11478" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Original_1" sheetId="7" r:id="rId1"/>
     <sheet name="Final_1" sheetId="9" r:id="rId2"/>
-    <sheet name="Errors" sheetId="8" r:id="rId3"/>
-    <sheet name="Original_2" sheetId="10" r:id="rId4"/>
-    <sheet name="Final_2" sheetId="11" r:id="rId5"/>
+    <sheet name="Original_2" sheetId="10" r:id="rId3"/>
+    <sheet name="Final_2" sheetId="11" r:id="rId4"/>
+    <sheet name="Errors" sheetId="8" r:id="rId5"/>
+    <sheet name="And-Or" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Final_1!$B$2:$Q$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Final_2!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="144">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -478,13 +480,25 @@
     <t>Both Roles</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Brackets</t>
-  </si>
-  <si>
-    <t>Total Salary</t>
+    <t>Conditon 1</t>
+  </si>
+  <si>
+    <t>Condition 2</t>
+  </si>
+  <si>
+    <t>=IFERROR()</t>
+  </si>
+  <si>
+    <t>=IFNA()</t>
+  </si>
+  <si>
+    <t>=AND()</t>
+  </si>
+  <si>
+    <t>=OR()</t>
+  </si>
+  <si>
+    <t>Buckets</t>
   </si>
 </sst>
 </file>
@@ -543,6 +557,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -565,7 +580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -833,12 +848,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -908,10 +936,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,32 +1325,32 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1015625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5234375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05078125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.05078125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.20703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.05078125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1015625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7890625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.05078125" style="1"/>
-    <col min="18" max="18" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.05078125" style="1"/>
+    <col min="1" max="1" width="5.07421875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.23046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.07421875" style="1"/>
+    <col min="18" max="18" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1350,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1756,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1872,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1930,12 +1977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -1964,32 +2011,32 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1015625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5234375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05078125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.05078125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3125" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.20703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.05078125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1015625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.7890625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.05078125" style="1"/>
-    <col min="19" max="19" width="14.05078125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.05078125" style="1"/>
+    <col min="1" max="1" width="5.07421875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.23046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.07421875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3828125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.07421875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.07421875" style="1"/>
+    <col min="19" max="19" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2039,7 +2086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2148,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2210,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2272,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2287,7 +2334,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2349,7 +2396,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +2458,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2473,7 +2520,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2535,7 +2582,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2597,7 +2644,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2659,12 +2706,12 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2672,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2687,113 +2734,681 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EBE098-CD97-45AE-AE7E-86DF2D94E426}">
-  <dimension ref="B2:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.41796875" customWidth="1"/>
-    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.61328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="27" t="e">
-        <f>1/0</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>37</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="47">
+        <v>44996.547291666669</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="27">
+        <v>135000</v>
+      </c>
+      <c r="I2" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="47">
+        <v>45097.915243055562</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="27" t="e">
-        <f>A4 + "text"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>38</v>
+        <v>64</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="27">
+        <v>35000</v>
+      </c>
+      <c r="I3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47">
+        <v>45173.250416666669</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>39</v>
+        <v>58</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="47">
+        <v>45156.253321759257</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="12" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="47">
+        <v>45147.802951388891</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="27" t="e">
-        <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>42</v>
+        <v>78</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="47">
+        <v>45202.753101851849</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27" t="e">
-        <f>SQRT(-1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="47">
+        <v>44949.850462962961</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="27" t="e">
-        <f>SUM(A1:A10 C1:C10)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>41</v>
+        <v>58</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="47">
+        <v>45001.627175925933</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="27">
+        <v>115000</v>
+      </c>
+      <c r="I9" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45041.375868055547</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="47">
+        <v>45106.587094907409</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="27">
+        <v>105000</v>
+      </c>
+      <c r="I11" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45029.919687499998</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="27">
+        <v>195000</v>
+      </c>
+      <c r="I12" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="47">
+        <v>45091.502789351849</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="27">
+        <v>165000</v>
+      </c>
+      <c r="I13" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45175.543124999997</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="27">
+        <v>281450.5</v>
+      </c>
+      <c r="I14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="47">
+        <v>45117.778391203698</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="27">
+        <v>70000</v>
+      </c>
+      <c r="I15" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="47">
+        <v>44938.614351851851</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="27">
+        <v>98301.5</v>
+      </c>
+      <c r="I16" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="47">
+        <v>44985.354097222233</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="27">
+        <v>89100</v>
+      </c>
+      <c r="I17" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45063.792291666658</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="47">
+        <v>45017.004837962973</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="27">
+        <v>87500</v>
+      </c>
+      <c r="I19" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45169.64203703704</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="47">
+        <v>45000.542685185188</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="27">
+        <v>90000</v>
+      </c>
+      <c r="I21" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2802,28 +3417,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.9453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.62890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.62890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.05078125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.921875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.07421875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.15234375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.61328125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.61328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="68.07421875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -2848,36 +3471,64 @@
       <c r="H1" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="46" t="s">
         <v>54</v>
       </c>
       <c r="J1" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="K1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="35">
+        <v>85000</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="XFD1">
+        <f>SUM(Q1:XFC1)</f>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="47">
         <v>44996.547291666669</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="27">
         <v>135000</v>
       </c>
       <c r="I2" t="b">
@@ -2886,30 +3537,62 @@
       <c r="J2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="K2" t="str">
+        <f>IF($A2=$K$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L2" t="str">
+        <f>IF($A2=$L$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M2" t="str">
+        <f>IF($A2=$K$1, "Role Desired",IF($A2=$L$1, "Role Desired", "NOT Desired"))</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N2" t="b">
+        <f>AND($A2=$K$1, $A2=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <f>OR($A2=$K$1, $A2=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="str">
+        <f>IF(OR($A2=$K$1, $A2=$L$1), "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF($H2&gt;$Q$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2">_xlfn.IFS(H2="", "No Data", H2&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="47">
         <v>45097.915243055562</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="27">
         <v>35000</v>
       </c>
       <c r="I3" t="b">
@@ -2918,175 +3601,372 @@
       <c r="J3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K21" si="0">IF($A3=$K$1, "Role Desired", "NOT Desired")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" si="1">IF($A3=$L$1, "Role Desired", "NOT Desired")</f>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M21" si="2">IF($A3=$K$1, "Role Desired",IF($A3=$L$1, "Role Desired", "NOT Desired"))</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N21" si="3">AND($A3=$K$1, $A3=$L$1)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <f t="shared" ref="N3:O21" si="4">OR($A3=$K$1, $A3=$L$1)</f>
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P21" si="5">IF(OR($A3=$K$1, $A3=$L$1), "Role Desired", "NOT Desired")</f>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q21" si="6">IF($H3&gt;$Q$1, "Salary &gt; 85K", "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" ref="R3">_xlfn.IFS(H3="", "No Data", H3&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="47">
         <v>45173.250416666669</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="H4" s="27"/>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="35">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O4" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R4" t="str" cm="1">
+        <f t="array" ref="R4">_xlfn.IFS(H4="", "No Data", H4&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="47">
         <v>45156.253321759257</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="H5" s="27"/>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" ref="R5">_xlfn.IFS(H5="", "No Data", H5&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="47">
         <v>45147.802951388891</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="H6" s="27"/>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="35">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R6" t="str" cm="1">
+        <f t="array" ref="R6">_xlfn.IFS(H6="", "No Data", H6&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="47">
         <v>45202.753101851849</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="27" t="s">
         <v>83</v>
       </c>
+      <c r="H7" s="27"/>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R7" t="str" cm="1">
+        <f t="array" ref="R7">_xlfn.IFS(H7="", "No Data", H7&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="47">
         <v>44949.850462962961</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="H8" s="27"/>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R8" t="str" cm="1">
+        <f t="array" ref="R8">_xlfn.IFS(H8="", "No Data", H8&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="47">
         <v>45001.627175925933</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="27">
         <v>115000</v>
       </c>
       <c r="I9" t="b">
@@ -3095,59 +3975,124 @@
       <c r="J9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R9" t="str" cm="1">
+        <f t="array" ref="R9">_xlfn.IFS(H9="", "No Data", H9&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="47">
         <v>45041.375868055547</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="H10" s="27"/>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O10" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R10" t="str" cm="1">
+        <f t="array" ref="R10">_xlfn.IFS(H10="", "No Data", H10&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="47">
         <v>45106.587094907409</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="27">
         <v>105000</v>
       </c>
       <c r="I11" t="b">
@@ -3156,30 +4101,62 @@
       <c r="J11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="35">
+      <c r="K11" t="str">
+        <f t="shared" si="0"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R11" t="str" cm="1">
+        <f t="array" ref="R11">_xlfn.IFS(H11="", "No Data", H11&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="47">
         <v>45029.919687499998</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="27">
         <v>195000</v>
       </c>
       <c r="I12" t="b">
@@ -3188,30 +4165,62 @@
       <c r="J12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="K12" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R12" t="str" cm="1">
+        <f t="array" ref="R12">_xlfn.IFS(H12="", "No Data", H12&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="47">
         <v>45091.502789351849</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="27">
         <v>165000</v>
       </c>
       <c r="I13" t="b">
@@ -3220,30 +4229,62 @@
       <c r="J13" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="35">
+      <c r="K13" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R13" t="str" cm="1">
+        <f t="array" ref="R13">_xlfn.IFS(H13="", "No Data", H13&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A14" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="47">
         <v>45175.543124999997</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="27">
         <v>281450.5</v>
       </c>
       <c r="I14" t="b">
@@ -3252,30 +4293,62 @@
       <c r="J14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="K14" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R14" t="str" cm="1">
+        <f t="array" ref="R14">_xlfn.IFS(H14="", "No Data", H14&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="47">
         <v>45117.778391203698</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="27">
         <v>70000</v>
       </c>
       <c r="I15" t="b">
@@ -3284,30 +4357,62 @@
       <c r="J15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="K15" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R15" t="str" cm="1">
+        <f t="array" ref="R15">_xlfn.IFS(H15="", "No Data", H15&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary Low</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="47">
         <v>44938.614351851851</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="27">
         <v>98301.5</v>
       </c>
       <c r="I16" t="b">
@@ -3316,30 +4421,62 @@
       <c r="J16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="K16" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R16" t="str" cm="1">
+        <f t="array" ref="R16">_xlfn.IFS(H16="", "No Data", H16&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="47">
         <v>44985.354097222233</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="27">
         <v>89100</v>
       </c>
       <c r="I17" t="b">
@@ -3348,59 +4485,124 @@
       <c r="J17" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="K17" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R17" t="str" cm="1">
+        <f t="array" ref="R17">_xlfn.IFS(H17="", "No Data", H17&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="47">
         <v>45063.792291666658</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="H18" s="27"/>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="K18" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R18" t="str" cm="1">
+        <f t="array" ref="R18">_xlfn.IFS(H18="", "No Data", H18&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="47">
         <v>45017.004837962973</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="27">
         <v>87500</v>
       </c>
       <c r="I19" t="b">
@@ -3409,59 +4611,124 @@
       <c r="J19" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="K19" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R19" t="str" cm="1">
+        <f t="array" ref="R19">_xlfn.IFS(H19="", "No Data", H19&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="47">
         <v>45169.64203703704</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="27" t="s">
         <v>67</v>
       </c>
+      <c r="H20" s="27"/>
       <c r="I20" t="b">
         <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="K20" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary Low</v>
+      </c>
+      <c r="R20" t="str" cm="1">
+        <f t="array" ref="R20">_xlfn.IFS(H20="", "No Data", H20&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>No Data</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="47">
         <v>45000.542685185188</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="27">
         <v>90000</v>
       </c>
       <c r="I21" t="b">
@@ -3469,6 +4736,219 @@
       </c>
       <c r="J21" t="s">
         <v>135</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="0"/>
+        <v>NOT Desired</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>Role Desired</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>Salary &gt; 85K</v>
+      </c>
+      <c r="R21" t="str" cm="1">
+        <f t="array" ref="R21">_xlfn.IFS(H21="", "No Data", H21&gt;=$Q$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
+        <v>Salary &gt; 85K</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:XFD1" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EBE098-CD97-45AE-AE7E-86DF2D94E426}">
+  <dimension ref="B2:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.61328125" customWidth="1"/>
+    <col min="2" max="2" width="13.3828125" customWidth="1"/>
+    <col min="3" max="3" width="31.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="27" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="27" t="str">
+        <f>IFERROR(B3, "This text hides the error")</f>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F3" s="27" t="e">
+        <f>_xlfn.IFNA(B3, "This hides #N/A error")</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="e">
+        <f>A4 + "text"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="27" t="str">
+        <f t="shared" ref="E4:E9" si="0">IFERROR(B4, "This text hides the error")</f>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F4" s="27" t="e">
+        <f t="shared" ref="F4:F9" si="1">_xlfn.IFNA(B4, "This hides #N/A error")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F5" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F6" s="27" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="27" t="e">
+        <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F7" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>This hides #N/A error</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="27" t="e">
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F8" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="27" t="e">
+        <f>SUM(A1:A10 C1:C10)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>This text hides the error</v>
+      </c>
+      <c r="F9" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#NULL!</v>
       </c>
     </row>
   </sheetData>
@@ -3476,1345 +4956,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
-  <dimension ref="A1:R21"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B83CC08-3BAC-45FD-A105-07186D54808A}">
+  <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="A1:J2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3671875" customWidth="1"/>
-    <col min="3" max="3" width="21.9453125" customWidth="1"/>
-    <col min="4" max="4" width="11.1015625" customWidth="1"/>
-    <col min="5" max="5" width="38.15625" customWidth="1"/>
-    <col min="6" max="6" width="14.62890625" customWidth="1"/>
-    <col min="7" max="7" width="18.62890625" customWidth="1"/>
-    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="68.05078125" customWidth="1"/>
-    <col min="11" max="11" width="10.9453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5234375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="N1" s="36" t="s">
+    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B2" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" s="36">
-        <v>85000</v>
-      </c>
-      <c r="Q1" s="36" t="s">
+      <c r="C2" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="35">
-        <v>44996.547291666669</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2">
-        <v>135000</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" t="str">
-        <f>IF($A2=$K$1, "Role Desired", "NOT Desired")</f>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L2" t="str">
-        <f>IF($A2=$L$1, "Role Desired", "NOT Desired")</f>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M2" t="str">
-        <f>IF($A2=$K$1, "Role Desired",IF($A2=$L$1, "Role Desired", "NOT Desired"))</f>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N2" t="b">
-        <f>OR($A2=$K$1, $A2=$L$1)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" t="str">
-        <f>IF(OR($A2=$K$1, $A2=$L$1), "Role Desired", "NOT Desired")</f>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P2" t="str">
-        <f>IF($H2&gt;$P$1, "Salary &gt; 85K", "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q2" t="str" cm="1">
-        <f t="array" ref="Q2">_xlfn.IFS(H2="", "No Data", H2&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R2">
-        <f>H2*1.1</f>
-        <v>148500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35">
-        <v>45097.915243055562</v>
-      </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3">
-        <v>35000</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="0">IF($A3=$K$1, "Role Desired", "NOT Desired")</f>
-        <v>Role Desired</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L21" si="1">IF($A3=$L$1, "Role Desired", "NOT Desired")</f>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M21" si="2">IF($A3=$K$1, "Role Desired",IF($A3=$L$1, "Role Desired", "NOT Desired"))</f>
-        <v>Role Desired</v>
-      </c>
-      <c r="N3" t="b">
-        <f t="shared" ref="N3:N21" si="3">OR($A3=$K$1, $A3=$L$1)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" t="str">
-        <f t="shared" ref="O3:O21" si="4">IF(OR($A3=$K$1, $A3=$L$1), "Role Desired", "NOT Desired")</f>
-        <v>Role Desired</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P21" si="5">IF($H3&gt;$P$1, "Salary &gt; 85K", "Salary Low")</f>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q3" t="str" cm="1">
-        <f t="array" ref="Q3">_xlfn.IFS(H3="", "No Data", H3&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary Low</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R21" si="6">H3*1.1</f>
-        <v>38500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35">
-        <v>45173.250416666669</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="str">
+      <c r="D2" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="42" t="b">
+        <f>AND(B3,C3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="42" t="b">
+        <f>OR(B3,C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42" t="b">
+        <f t="shared" ref="D4:D6" si="0">AND(B4,C4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="42" t="b">
+        <f t="shared" ref="E4:E6" si="1">OR(B4,C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42" t="b">
         <f t="shared" si="0"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="L4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" s="42" t="b">
         <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N4" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O4" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P4" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q4" t="str" cm="1">
-        <f t="array" ref="Q4">_xlfn.IFS(H4="", "No Data", H4&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="35">
-        <v>45156.253321759257</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="43" t="b">
         <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="43" t="b">
         <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N5" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P5" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q5" t="str" cm="1">
-        <f t="array" ref="Q5">_xlfn.IFS(H5="", "No Data", H5&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="35">
-        <v>45147.802951388891</v>
-      </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N6" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P6" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q6" t="str" cm="1">
-        <f t="array" ref="Q6">_xlfn.IFS(H6="", "No Data", H6&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="35">
-        <v>45202.753101851849</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N7" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P7" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q7" t="str" cm="1">
-        <f t="array" ref="Q7">_xlfn.IFS(H7="", "No Data", H7&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="35">
-        <v>44949.850462962961</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N8" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q8" t="str" cm="1">
-        <f t="array" ref="Q8">_xlfn.IFS(H8="", "No Data", H8&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="35">
-        <v>45001.627175925933</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9">
-        <v>115000</v>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="0"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N9" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q9" t="str" cm="1">
-        <f t="array" ref="Q9">_xlfn.IFS(H9="", "No Data", H9&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="6"/>
-        <v>126500.00000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="35">
-        <v>45041.375868055547</v>
-      </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="0"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N10" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O10" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q10" t="str" cm="1">
-        <f t="array" ref="Q10">_xlfn.IFS(H10="", "No Data", H10&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35">
-        <v>45106.587094907409</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11">
-        <v>105000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" si="0"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N11" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O11" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q11" t="str" cm="1">
-        <f t="array" ref="Q11">_xlfn.IFS(H11="", "No Data", H11&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="6"/>
-        <v>115500.00000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="35">
-        <v>45029.919687499998</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12">
-        <v>195000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L12" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N12" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q12" t="str" cm="1">
-        <f t="array" ref="Q12">_xlfn.IFS(H12="", "No Data", H12&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="6"/>
-        <v>214500.00000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="35">
-        <v>45091.502789351849</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13">
-        <v>165000</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N13" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q13" t="str" cm="1">
-        <f t="array" ref="Q13">_xlfn.IFS(H13="", "No Data", H13&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="6"/>
-        <v>181500.00000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="35">
-        <v>45175.543124999997</v>
-      </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14">
-        <v>281450.5</v>
-      </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N14" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q14" t="str" cm="1">
-        <f t="array" ref="Q14">_xlfn.IFS(H14="", "No Data", H14&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="6"/>
-        <v>309595.55000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="35">
-        <v>45117.778391203698</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15">
-        <v>70000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>114</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N15" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O15" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q15" t="str" cm="1">
-        <f t="array" ref="Q15">_xlfn.IFS(H15="", "No Data", H15&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary Low</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="6"/>
-        <v>77000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="35">
-        <v>44938.614351851851</v>
-      </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16">
-        <v>98301.5</v>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N16" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q16" t="str" cm="1">
-        <f t="array" ref="Q16">_xlfn.IFS(H16="", "No Data", H16&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="6"/>
-        <v>108131.65000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="35">
-        <v>44985.354097222233</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17">
-        <v>89100</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L17" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N17" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q17" t="str" cm="1">
-        <f t="array" ref="Q17">_xlfn.IFS(H17="", "No Data", H17&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="6"/>
-        <v>98010.000000000015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="35">
-        <v>45063.792291666658</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N18" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q18" t="str" cm="1">
-        <f t="array" ref="Q18">_xlfn.IFS(H18="", "No Data", H18&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="35">
-        <v>45017.004837962973</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19">
-        <v>87500</v>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>129</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N19" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O19" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P19" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q19" t="str" cm="1">
-        <f t="array" ref="Q19">_xlfn.IFS(H19="", "No Data", H19&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="6"/>
-        <v>96250.000000000015</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="35">
-        <v>45169.64203703704</v>
-      </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="2"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="N20" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="4"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary Low</v>
-      </c>
-      <c r="Q20" t="str" cm="1">
-        <f t="array" ref="Q20">_xlfn.IFS(H20="", "No Data", H20&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>No Data</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="35">
-        <v>45000.542685185188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21">
-        <v>90000</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="0"/>
-        <v>NOT Desired</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="2"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="N21" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O21" t="str">
-        <f t="shared" si="4"/>
-        <v>Role Desired</v>
-      </c>
-      <c r="P21" t="str">
-        <f t="shared" si="5"/>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="Q21" t="str" cm="1">
-        <f t="array" ref="Q21">_xlfn.IFS(H21="", "No Data", H21&gt;=$P$1, "Salary &gt; 85K", TRUE, "Salary Low")</f>
-        <v>Salary &gt; 85K</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="6"/>
-        <v>99000.000000000015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53973FD9-B5D6-4D93-996B-1CE20931EB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC915D-7D72-472C-8DF0-33281FF25CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="630" windowWidth="18132" windowHeight="11478" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original_1" sheetId="7" r:id="rId1"/>
+    <sheet name="Data_1" sheetId="7" r:id="rId1"/>
     <sheet name="Final_1" sheetId="9" r:id="rId2"/>
-    <sheet name="Original_2" sheetId="10" r:id="rId3"/>
+    <sheet name="Data_2" sheetId="10" r:id="rId3"/>
     <sheet name="Final_2" sheetId="11" r:id="rId4"/>
     <sheet name="Errors" sheetId="8" r:id="rId5"/>
     <sheet name="And-Or" sheetId="12" r:id="rId6"/>
@@ -1322,35 +1322,35 @@
   <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.07421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3046875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3046875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.23046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.07421875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3828125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.765625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.07421875" style="1"/>
-    <col min="18" max="18" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.07421875" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1977,12 +1977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2011,32 +2011,32 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.07421875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.53515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.3046875" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.3046875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.23046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.07421875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3828125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.07421875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.07421875" style="1"/>
-    <col min="19" max="19" width="14.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.07421875" style="1"/>
+    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2706,12 +2706,12 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2738,24 +2738,24 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.61328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.61328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.07421875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -3421,32 +3421,32 @@
   <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3828125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.921875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.15234375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.61328125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.61328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="68.07421875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.07421875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.07421875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <f t="shared" ref="N3:O21" si="4">OR($A3=$K$1, $A3=$L$1)</f>
+        <f t="shared" ref="O3:O21" si="4">OR($A3=$K$1, $A3=$L$1)</f>
         <v>1</v>
       </c>
       <c r="P3" t="str">
@@ -3634,7 +3634,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -4784,17 +4784,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.61328125" customWidth="1"/>
-    <col min="2" max="2" width="13.3828125" customWidth="1"/>
-    <col min="3" max="3" width="31.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -4831,7 +4831,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -4851,7 +4851,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -4871,7 +4871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -4891,7 +4891,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -4911,7 +4911,7 @@
         <v>This hides #N/A error</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -4931,7 +4931,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
@@ -4964,14 +4964,14 @@
       <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.61328125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
         <v>137</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="b">
         <v>1</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="b">
         <v>1</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="b">
         <v>0</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="b">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28015"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBC915D-7D72-472C-8DF0-33281FF25CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E0BEB-41AE-4774-B9A5-765E5C35748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-102" yWindow="1434" windowWidth="18348" windowHeight="10350" activeTab="2" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_1" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="144">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -1325,32 +1325,32 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.15625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.68359375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.15625" style="1"/>
+    <col min="18" max="18" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1977,12 +1977,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2008,35 +2008,35 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.15625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.41796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="11.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26171875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.15625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.15625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="9.68359375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.15625" style="1"/>
+    <col min="19" max="19" width="14.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>Not Met</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2706,12 +2706,12 @@
         <v>Goal Met</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2735,27 +2735,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.15625" customWidth="1"/>
+    <col min="3" max="3" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.9453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5234375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -2786,8 +2794,32 @@
       <c r="J1" s="34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" s="35">
+        <v>85000</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +2913,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -2911,7 +2943,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -2941,7 +2973,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -2971,7 +3003,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3001,7 +3033,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -3033,7 +3065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3095,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -3095,7 +3127,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -3127,7 +3159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -3159,7 +3191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3223,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3255,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -3255,7 +3287,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -3287,7 +3319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -3317,7 +3349,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -3349,7 +3381,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -3379,7 +3411,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -3420,33 +3452,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R1" sqref="K1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.83984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.15625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.15625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="68.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="68.15625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="34" t="s">
         <v>46</v>
       </c>
@@ -3506,7 +3538,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -3570,7 +3602,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
@@ -3634,7 +3666,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3696,7 +3728,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="27" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3790,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="27" t="s">
         <v>76</v>
       </c>
@@ -3820,7 +3852,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="27" t="s">
         <v>0</v>
       </c>
@@ -3882,7 +3914,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -3944,7 +3976,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="27" t="s">
         <v>2</v>
       </c>
@@ -4008,7 +4040,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="27" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4102,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
@@ -4134,7 +4166,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="27" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4230,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="27" t="s">
         <v>102</v>
       </c>
@@ -4262,7 +4294,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
@@ -4326,7 +4358,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
@@ -4390,7 +4422,7 @@
         <v>Salary Low</v>
       </c>
     </row>
-    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18 16384:16384" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="27" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4486,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="27" t="s">
         <v>4</v>
       </c>
@@ -4518,7 +4550,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27" t="s">
         <v>123</v>
       </c>
@@ -4580,7 +4612,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27" t="s">
         <v>0</v>
       </c>
@@ -4644,7 +4676,7 @@
         <v>Salary &gt; 85K</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="27" t="s">
         <v>0</v>
       </c>
@@ -4706,7 +4738,7 @@
         <v>No Data</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
@@ -4784,17 +4816,17 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.578125" customWidth="1"/>
+    <col min="2" max="2" width="13.41796875" customWidth="1"/>
+    <col min="3" max="3" width="31.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
@@ -4811,7 +4843,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="27" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
@@ -4831,7 +4863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="27" t="e">
         <f>A4 + "text"</f>
         <v>#VALUE!</v>
@@ -4851,7 +4883,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -4871,7 +4903,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="12" t="e" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">COUNTT(A3:A9)</f>
         <v>#NAME?</v>
@@ -4891,7 +4923,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="27" t="e">
         <f>VLOOKUP("Value", A1:A10, 2, FALSE)</f>
         <v>#N/A</v>
@@ -4911,7 +4943,7 @@
         <v>This hides #N/A error</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="27" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
@@ -4931,7 +4963,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="27" t="e">
         <f>SUM(A1:A10 C1:C10)</f>
         <v>#NULL!</v>
@@ -4964,14 +4996,14 @@
       <selection activeCell="E2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="36" t="s">
         <v>137</v>
       </c>
@@ -4985,7 +5017,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="38" t="b">
         <v>1</v>
       </c>
@@ -5001,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="38" t="b">
         <v>1</v>
       </c>
@@ -5017,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="38" t="b">
         <v>0</v>
       </c>
@@ -5033,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="40" t="b">
         <v>0</v>
       </c>

--- a/2_Formulas_Functions/3_Logical_Functions.xlsx
+++ b/2_Formulas_Functions/3_Logical_Functions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24E0BEB-41AE-4774-B9A5-765E5C35748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DACF0C-E6D1-403B-A48D-03B483E33508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-102" yWindow="1434" windowWidth="18348" windowHeight="10350" activeTab="2" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
+    <workbookView xWindow="-102" yWindow="1488" windowWidth="18372" windowHeight="10296" xr2:uid="{8CC555B5-3E06-43B6-9E5B-C0A1D3498DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_1" sheetId="7" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="144">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -1319,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D423364-12D3-4C3A-8A6B-C3645EBFE927}">
-  <dimension ref="B1:P16"/>
+  <dimension ref="B1:Q16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1347,10 +1347,10 @@
     <col min="19" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="G1" s="25"/>
     </row>
-    <row r="2" spans="2:16" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:17" s="11" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1396,8 +1396,11 @@
       <c r="P2" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q2" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1454,8 +1457,9 @@
         <f>AND(L3,M3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q3" s="32"/>
+    </row>
+    <row r="4" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1512,8 +1516,9 @@
         <f t="shared" ref="P4:P12" si="10">AND(L4,M4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q4" s="32"/>
+    </row>
+    <row r="5" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1570,8 +1575,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q5" s="32"/>
+    </row>
+    <row r="6" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1628,8 +1634,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
@@ -1686,8 +1693,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1744,8 +1752,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
@@ -1802,8 +1811,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
@@ -1860,8 +1870,9 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1918,8 +1929,9 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1976,13 +1988,14 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q12" s="33"/>
+    </row>
+    <row r="14" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="15" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2021,7 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2023,11 +2036,12 @@
     <col min="8" max="9" width="11.15625" style="1" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.26171875" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14.26171875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26171875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.15625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26171875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.15625" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.41796875" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="14.15625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="9.68359375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.68359375" style="1" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.68359375" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.15625" style="1"/>
     <col min="19" max="19" width="14.15625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.15625" style="1"/>
@@ -2728,7 +2742,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Q12" xr:uid="{C913A13C-1EE0-4C25-B641-D7D4D62C7E1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2737,7 +2750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E6D21-2229-4383-8B9A-431F68FAE08C}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
@@ -3452,9 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4064259-8981-41EE-A951-64D7FCDC9F77}">
   <dimension ref="A1:XFD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R1" sqref="K1:R1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4813,7 +4824,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
